--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_15_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_15_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1811699.974097895</v>
+        <v>-1814369.969652857</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9823063.766377151</v>
+        <v>9823063.766377157</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673439</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>369.0685238739787</v>
       </c>
       <c r="C11" t="n">
-        <v>351.6075739815062</v>
+        <v>351.6075739815057</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>341.0177238311811</v>
       </c>
       <c r="E11" t="n">
-        <v>368.2650522827604</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>336.6347261962297</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.2564078639521</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>280.9424465978191</v>
+        <v>280.9424465978186</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>27.91161198342408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>95.52244399867396</v>
       </c>
       <c r="T11" t="n">
-        <v>190.2526523501188</v>
+        <v>190.2526523501183</v>
       </c>
       <c r="U11" t="n">
-        <v>237.3298541694006</v>
+        <v>237.3298541694001</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>314.0869406806331</v>
       </c>
       <c r="W11" t="n">
-        <v>335.5756509279116</v>
+        <v>335.5756509279112</v>
       </c>
       <c r="X11" t="n">
-        <v>356.0657828889676</v>
+        <v>356.0657828889672</v>
       </c>
       <c r="Y11" t="n">
-        <v>372.5726208665522</v>
+        <v>327.1215628416056</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>166.1666623924359</v>
+        <v>166.1666623924354</v>
       </c>
       <c r="C13" t="n">
-        <v>153.5815033091264</v>
+        <v>153.581503309126</v>
       </c>
       <c r="D13" t="n">
-        <v>134.950155228711</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>132.7686448570678</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>131.7557302334299</v>
+        <v>93.7113247355598</v>
       </c>
       <c r="G13" t="n">
-        <v>152.3604904695268</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0896971248194</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>18.35506820500553</v>
+        <v>82.68710262033622</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>75.26683488054546</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>176.10370754194</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>205.8836314866673</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>272.546520416111</v>
       </c>
       <c r="V13" t="n">
-        <v>238.4723255343266</v>
+        <v>238.4723255343261</v>
       </c>
       <c r="W13" t="n">
-        <v>272.8576805470896</v>
+        <v>272.8576805470892</v>
       </c>
       <c r="X13" t="n">
-        <v>212.0443375995358</v>
+        <v>212.0443375995353</v>
       </c>
       <c r="Y13" t="n">
-        <v>204.9193355625934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>369.0685238739792</v>
+        <v>369.0685238739787</v>
       </c>
       <c r="C14" t="n">
-        <v>351.6075739815062</v>
+        <v>197.9478336390321</v>
       </c>
       <c r="D14" t="n">
-        <v>341.0177238311816</v>
+        <v>341.0177238311811</v>
       </c>
       <c r="E14" t="n">
-        <v>368.2650522827604</v>
+        <v>368.2650522827599</v>
       </c>
       <c r="F14" t="n">
-        <v>393.21072795221</v>
+        <v>393.2107279522096</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.2564078639516</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>95.52244399867445</v>
+        <v>95.52244399867398</v>
       </c>
       <c r="T14" t="n">
-        <v>190.2526523501188</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>237.3298541694006</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>314.0869406806335</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>335.5756509279116</v>
+        <v>335.5756509279112</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>356.0657828889672</v>
       </c>
       <c r="Y14" t="n">
-        <v>230.5656240768413</v>
+        <v>372.5726208665517</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>166.1666623924359</v>
+        <v>166.1666623924354</v>
       </c>
       <c r="C16" t="n">
-        <v>153.5815033091264</v>
+        <v>153.581503309126</v>
       </c>
       <c r="D16" t="n">
-        <v>134.950155228711</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>131.7557302334299</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0896971248194</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>75.26683488054593</v>
+        <v>75.26683488054547</v>
       </c>
       <c r="S16" t="n">
-        <v>167.715185834479</v>
+        <v>176.10370754194</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>205.8836314866673</v>
       </c>
       <c r="U16" t="n">
-        <v>272.5465204161115</v>
+        <v>272.546520416111</v>
       </c>
       <c r="V16" t="n">
-        <v>238.4723255343266</v>
+        <v>238.4723255343261</v>
       </c>
       <c r="W16" t="n">
-        <v>272.8576805470896</v>
+        <v>272.8576805470892</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>212.0443375995353</v>
       </c>
       <c r="Y16" t="n">
-        <v>204.9193355625934</v>
+        <v>176.398427355896</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>322.0933872553866</v>
+        <v>322.0933872553861</v>
       </c>
       <c r="C17" t="n">
-        <v>304.6324373629136</v>
+        <v>304.6324373629132</v>
       </c>
       <c r="D17" t="n">
-        <v>294.042587212589</v>
+        <v>294.0425872125885</v>
       </c>
       <c r="E17" t="n">
-        <v>321.2899156641678</v>
+        <v>282.4786072299046</v>
       </c>
       <c r="F17" t="n">
-        <v>346.2355913336175</v>
+        <v>346.235591333617</v>
       </c>
       <c r="G17" t="n">
-        <v>350.2812712453595</v>
+        <v>350.281271245359</v>
       </c>
       <c r="H17" t="n">
-        <v>233.9673099792265</v>
+        <v>233.967309979226</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.735998945827459</v>
+        <v>48.54730738008142</v>
       </c>
       <c r="T17" t="n">
-        <v>143.2775157315262</v>
+        <v>143.2775157315257</v>
       </c>
       <c r="U17" t="n">
-        <v>190.354717550808</v>
+        <v>190.3547175508075</v>
       </c>
       <c r="V17" t="n">
-        <v>267.111804062041</v>
+        <v>267.1118040620405</v>
       </c>
       <c r="W17" t="n">
-        <v>288.6005143093191</v>
+        <v>288.6005143093186</v>
       </c>
       <c r="X17" t="n">
-        <v>309.0906462703751</v>
+        <v>309.0906462703746</v>
       </c>
       <c r="Y17" t="n">
-        <v>325.5974842479596</v>
+        <v>325.5974842479592</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>119.1915257738434</v>
+        <v>119.1915257738429</v>
       </c>
       <c r="C19" t="n">
-        <v>106.6063666905339</v>
+        <v>106.6063666905334</v>
       </c>
       <c r="D19" t="n">
-        <v>87.97501861011841</v>
+        <v>87.97501861011793</v>
       </c>
       <c r="E19" t="n">
-        <v>85.79350823847523</v>
+        <v>85.79350823847474</v>
       </c>
       <c r="F19" t="n">
-        <v>84.7805936148373</v>
+        <v>84.78059361483682</v>
       </c>
       <c r="G19" t="n">
-        <v>105.3853538509343</v>
+        <v>105.3853538509338</v>
       </c>
       <c r="H19" t="n">
-        <v>84.11456050622684</v>
+        <v>84.11456050622635</v>
       </c>
       <c r="I19" t="n">
-        <v>35.71196600174415</v>
+        <v>35.71196600174368</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>28.29169826195339</v>
+        <v>28.29169826195292</v>
       </c>
       <c r="S19" t="n">
-        <v>129.128570923348</v>
+        <v>129.1285709233475</v>
       </c>
       <c r="T19" t="n">
-        <v>158.9084948680753</v>
+        <v>158.9084948680748</v>
       </c>
       <c r="U19" t="n">
-        <v>225.5713837975189</v>
+        <v>225.5713837975184</v>
       </c>
       <c r="V19" t="n">
-        <v>191.4971889157341</v>
+        <v>191.4971889157336</v>
       </c>
       <c r="W19" t="n">
-        <v>225.8825439284971</v>
+        <v>225.8825439284966</v>
       </c>
       <c r="X19" t="n">
-        <v>165.0692009809432</v>
+        <v>165.0692009809427</v>
       </c>
       <c r="Y19" t="n">
-        <v>157.9441989440008</v>
+        <v>157.9441989440004</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>322.0933872553866</v>
+        <v>322.0933872553861</v>
       </c>
       <c r="C20" t="n">
-        <v>304.6324373629136</v>
+        <v>304.6324373629132</v>
       </c>
       <c r="D20" t="n">
-        <v>294.042587212589</v>
+        <v>294.0425872125885</v>
       </c>
       <c r="E20" t="n">
-        <v>321.2899156641678</v>
+        <v>321.2899156641673</v>
       </c>
       <c r="F20" t="n">
-        <v>346.2355913336175</v>
+        <v>346.235591333617</v>
       </c>
       <c r="G20" t="n">
-        <v>350.2812712453595</v>
+        <v>350.281271245359</v>
       </c>
       <c r="H20" t="n">
-        <v>195.1560015449734</v>
+        <v>233.967309979226</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>48.54730738008189</v>
+        <v>48.54730738008142</v>
       </c>
       <c r="T20" t="n">
-        <v>143.2775157315262</v>
+        <v>143.2775157315257</v>
       </c>
       <c r="U20" t="n">
-        <v>190.354717550808</v>
+        <v>190.3547175508075</v>
       </c>
       <c r="V20" t="n">
-        <v>267.111804062041</v>
+        <v>267.1118040620405</v>
       </c>
       <c r="W20" t="n">
-        <v>288.6005143093191</v>
+        <v>249.789205875057</v>
       </c>
       <c r="X20" t="n">
-        <v>309.0906462703751</v>
+        <v>309.0906462703746</v>
       </c>
       <c r="Y20" t="n">
-        <v>325.5974842479596</v>
+        <v>325.5974842479592</v>
       </c>
     </row>
     <row r="21">
@@ -2175,7 +2175,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
         <v>18.81721868247745</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>119.1915257738434</v>
+        <v>119.1915257738429</v>
       </c>
       <c r="C22" t="n">
-        <v>106.6063666905339</v>
+        <v>106.6063666905334</v>
       </c>
       <c r="D22" t="n">
-        <v>87.97501861011841</v>
+        <v>87.97501861011793</v>
       </c>
       <c r="E22" t="n">
-        <v>85.79350823847523</v>
+        <v>85.79350823847474</v>
       </c>
       <c r="F22" t="n">
-        <v>84.7805936148373</v>
+        <v>84.78059361483682</v>
       </c>
       <c r="G22" t="n">
-        <v>105.3853538509343</v>
+        <v>105.3853538509338</v>
       </c>
       <c r="H22" t="n">
-        <v>84.11456050622684</v>
+        <v>84.11456050622635</v>
       </c>
       <c r="I22" t="n">
-        <v>35.71196600174415</v>
+        <v>35.71196600174368</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>28.29169826195339</v>
+        <v>28.29169826195292</v>
       </c>
       <c r="S22" t="n">
-        <v>129.128570923348</v>
+        <v>129.1285709233475</v>
       </c>
       <c r="T22" t="n">
-        <v>158.9084948680753</v>
+        <v>158.9084948680748</v>
       </c>
       <c r="U22" t="n">
-        <v>225.5713837975189</v>
+        <v>225.5713837975184</v>
       </c>
       <c r="V22" t="n">
-        <v>191.4971889157341</v>
+        <v>191.4971889157336</v>
       </c>
       <c r="W22" t="n">
-        <v>225.8825439284971</v>
+        <v>225.8825439284966</v>
       </c>
       <c r="X22" t="n">
-        <v>165.0692009809432</v>
+        <v>165.0692009809427</v>
       </c>
       <c r="Y22" t="n">
-        <v>157.9441989440008</v>
+        <v>157.9441989440004</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>322.0933872553866</v>
+        <v>322.0933872553861</v>
       </c>
       <c r="C23" t="n">
-        <v>304.6324373629136</v>
+        <v>304.6324373629132</v>
       </c>
       <c r="D23" t="n">
-        <v>294.042587212589</v>
+        <v>294.0425872125885</v>
       </c>
       <c r="E23" t="n">
-        <v>321.2899156641678</v>
+        <v>321.2899156641673</v>
       </c>
       <c r="F23" t="n">
-        <v>346.2355913336175</v>
+        <v>346.235591333617</v>
       </c>
       <c r="G23" t="n">
-        <v>350.2812712453595</v>
+        <v>350.281271245359</v>
       </c>
       <c r="H23" t="n">
-        <v>233.9673099792265</v>
+        <v>233.967309979226</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>48.54730738008188</v>
+        <v>48.54730738008142</v>
       </c>
       <c r="T23" t="n">
-        <v>143.2775157315262</v>
+        <v>143.2775157315257</v>
       </c>
       <c r="U23" t="n">
-        <v>190.354717550808</v>
+        <v>190.3547175508075</v>
       </c>
       <c r="V23" t="n">
-        <v>267.111804062041</v>
+        <v>267.1118040620405</v>
       </c>
       <c r="W23" t="n">
-        <v>288.6005143093191</v>
+        <v>288.6005143093186</v>
       </c>
       <c r="X23" t="n">
-        <v>309.0906462703751</v>
+        <v>309.0906462703746</v>
       </c>
       <c r="Y23" t="n">
-        <v>325.5974842479596</v>
+        <v>325.5974842479592</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>119.1915257738434</v>
+        <v>119.1915257738429</v>
       </c>
       <c r="C25" t="n">
-        <v>106.6063666905339</v>
+        <v>106.6063666905334</v>
       </c>
       <c r="D25" t="n">
-        <v>87.97501861011841</v>
+        <v>87.97501861011793</v>
       </c>
       <c r="E25" t="n">
-        <v>85.79350823847523</v>
+        <v>85.79350823847474</v>
       </c>
       <c r="F25" t="n">
-        <v>84.7805936148373</v>
+        <v>84.78059361483682</v>
       </c>
       <c r="G25" t="n">
-        <v>105.3853538509343</v>
+        <v>105.3853538509338</v>
       </c>
       <c r="H25" t="n">
-        <v>84.11456050622684</v>
+        <v>84.11456050622635</v>
       </c>
       <c r="I25" t="n">
-        <v>35.71196600174415</v>
+        <v>35.71196600174368</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>28.29169826195339</v>
+        <v>28.29169826195292</v>
       </c>
       <c r="S25" t="n">
-        <v>129.128570923348</v>
+        <v>129.1285709233475</v>
       </c>
       <c r="T25" t="n">
-        <v>158.9084948680753</v>
+        <v>158.9084948680748</v>
       </c>
       <c r="U25" t="n">
-        <v>225.5713837975189</v>
+        <v>225.5713837975184</v>
       </c>
       <c r="V25" t="n">
-        <v>191.4971889157341</v>
+        <v>191.4971889157336</v>
       </c>
       <c r="W25" t="n">
-        <v>225.8825439284971</v>
+        <v>225.8825439284966</v>
       </c>
       <c r="X25" t="n">
-        <v>165.0692009809432</v>
+        <v>165.0692009809427</v>
       </c>
       <c r="Y25" t="n">
-        <v>157.9441989440008</v>
+        <v>157.9441989440004</v>
       </c>
     </row>
     <row r="26">
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2719,16 +2719,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
         <v>49.37728379124555</v>
@@ -2761,7 +2761,7 @@
         <v>41.95701605145479</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T28" t="n">
         <v>172.5738126575766</v>
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C29" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E29" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F29" t="n">
         <v>359.9009091231189</v>
@@ -2807,7 +2807,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958327</v>
+        <v>62.21262516958335</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210277</v>
       </c>
       <c r="U29" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403095</v>
       </c>
       <c r="V29" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W29" t="n">
         <v>302.2658320988205</v>
@@ -2858,7 +2858,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="30">
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C31" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996199</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797667</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433874</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572828</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124368</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145484</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X31" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="32">
@@ -3032,16 +3032,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E32" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H32" t="n">
         <v>247.6326277687279</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3089,10 +3089,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y32" t="n">
         <v>339.262802037461</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3430,16 +3430,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I37" t="n">
         <v>49.37728379124554</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3904,16 +3904,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I43" t="n">
         <v>49.37728379124554</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3977,7 +3977,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C44" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D44" t="n">
         <v>307.7079050020903</v>
@@ -3992,7 +3992,7 @@
         <v>363.9465890348608</v>
       </c>
       <c r="H44" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958321</v>
       </c>
       <c r="T44" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210275</v>
       </c>
       <c r="U44" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V44" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515422</v>
       </c>
       <c r="W44" t="n">
         <v>302.2658320988204</v>
@@ -4043,7 +4043,7 @@
         <v>322.7559640598764</v>
       </c>
       <c r="Y44" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374609</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4138,22 +4138,22 @@
         <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797653</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433866</v>
+        <v>98.4459114043386</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572814</v>
       </c>
       <c r="I46" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124547</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145474</v>
+        <v>41.9570160514547</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4189,7 +4189,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V46" t="n">
         <v>205.1625067052354</v>
@@ -4198,10 +4198,10 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335021</v>
       </c>
     </row>
   </sheetData>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1818.740608272857</v>
+        <v>1078.107425921001</v>
       </c>
       <c r="C11" t="n">
-        <v>1463.581442634972</v>
+        <v>722.9482602831167</v>
       </c>
       <c r="D11" t="n">
-        <v>1463.581442634972</v>
+        <v>378.4859129788933</v>
       </c>
       <c r="E11" t="n">
-        <v>1091.596541339254</v>
+        <v>378.4859129788933</v>
       </c>
       <c r="F11" t="n">
-        <v>751.5614643733663</v>
+        <v>378.4859129788933</v>
       </c>
       <c r="G11" t="n">
-        <v>350.2923655208895</v>
+        <v>378.4859129788933</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>94.70566389018758</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218343</v>
@@ -5042,7 +5042,7 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3229.118504438794</v>
       </c>
       <c r="T11" t="n">
-        <v>3133.43142529592</v>
+        <v>3036.944108125543</v>
       </c>
       <c r="U11" t="n">
-        <v>2893.704299872283</v>
+        <v>2797.216982701907</v>
       </c>
       <c r="V11" t="n">
-        <v>2893.704299872283</v>
+        <v>2479.957446660863</v>
       </c>
       <c r="W11" t="n">
-        <v>2554.738995904695</v>
+        <v>2140.992142693276</v>
       </c>
       <c r="X11" t="n">
-        <v>2195.076588946142</v>
+        <v>1781.329735734723</v>
       </c>
       <c r="Y11" t="n">
-        <v>1818.740608272857</v>
+        <v>1450.903914682596</v>
       </c>
     </row>
     <row r="12">
@@ -5109,19 +5109,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
         <v>765.1517452158131</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>930.0083683793421</v>
+        <v>399.8251777099834</v>
       </c>
       <c r="C13" t="n">
-        <v>774.8755367539618</v>
+        <v>244.6923460846037</v>
       </c>
       <c r="D13" t="n">
-        <v>638.5622486441528</v>
+        <v>244.6923460846037</v>
       </c>
       <c r="E13" t="n">
-        <v>504.4525063642863</v>
+        <v>244.6923460846037</v>
       </c>
       <c r="F13" t="n">
-        <v>371.3659101689025</v>
+        <v>150.0344423113109</v>
       </c>
       <c r="G13" t="n">
-        <v>217.466424846148</v>
+        <v>150.0344423113109</v>
       </c>
       <c r="H13" t="n">
-        <v>85.05258936653246</v>
+        <v>150.0344423113109</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>125.1634134907254</v>
+        <v>125.1634134907258</v>
       </c>
       <c r="K13" t="n">
-        <v>342.6792610512081</v>
+        <v>342.679261051209</v>
       </c>
       <c r="L13" t="n">
-        <v>672.7677241113106</v>
+        <v>672.767724111312</v>
       </c>
       <c r="M13" t="n">
-        <v>1030.453434322466</v>
+        <v>1030.453434322468</v>
       </c>
       <c r="N13" t="n">
-        <v>1385.390475639937</v>
+        <v>1385.390475639939</v>
       </c>
       <c r="O13" t="n">
-        <v>1698.248739171957</v>
+        <v>1698.24873917196</v>
       </c>
       <c r="P13" t="n">
-        <v>1944.384904217222</v>
+        <v>1944.384904217226</v>
       </c>
       <c r="Q13" t="n">
-        <v>2035.523864981343</v>
+        <v>2035.523864981347</v>
       </c>
       <c r="R13" t="n">
-        <v>2035.523864981343</v>
+        <v>1959.496759041402</v>
       </c>
       <c r="S13" t="n">
-        <v>2035.523864981343</v>
+        <v>1781.614226170756</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.523864981343</v>
+        <v>1573.650962042809</v>
       </c>
       <c r="U13" t="n">
-        <v>2035.523864981343</v>
+        <v>1298.351446470979</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.642728077983</v>
+        <v>1057.47030956762</v>
       </c>
       <c r="W13" t="n">
-        <v>1519.028909343549</v>
+        <v>781.8564908331863</v>
       </c>
       <c r="X13" t="n">
-        <v>1304.842709748058</v>
+        <v>567.670291237696</v>
       </c>
       <c r="Y13" t="n">
-        <v>1097.853481907055</v>
+        <v>567.670291237696</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5252,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1535.301084157091</v>
+        <v>1781.358324077774</v>
       </c>
       <c r="C14" t="n">
-        <v>1180.141918519206</v>
+        <v>1581.411017371681</v>
       </c>
       <c r="D14" t="n">
-        <v>835.6795712149819</v>
+        <v>1236.948670067457</v>
       </c>
       <c r="E14" t="n">
-        <v>463.6946699192644</v>
+        <v>864.9637687717403</v>
       </c>
       <c r="F14" t="n">
-        <v>66.51211643218343</v>
+        <v>467.7812152846598</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5306,22 +5306,22 @@
         <v>3229.118504438793</v>
       </c>
       <c r="T14" t="n">
-        <v>3036.944108125542</v>
+        <v>3229.118504438793</v>
       </c>
       <c r="U14" t="n">
-        <v>2797.216982701905</v>
+        <v>3229.118504438793</v>
       </c>
       <c r="V14" t="n">
-        <v>2479.957446660861</v>
+        <v>3229.118504438793</v>
       </c>
       <c r="W14" t="n">
-        <v>2140.992142693273</v>
+        <v>2890.153200471206</v>
       </c>
       <c r="X14" t="n">
-        <v>2140.992142693273</v>
+        <v>2530.490793512653</v>
       </c>
       <c r="Y14" t="n">
-        <v>1908.097572918686</v>
+        <v>2154.154812839369</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5373,34 +5373,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>623.4586678423721</v>
+        <v>221.6449480575632</v>
       </c>
       <c r="C16" t="n">
-        <v>468.3258362169918</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D16" t="n">
-        <v>332.0125481071827</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E16" t="n">
-        <v>332.0125481071827</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F16" t="n">
-        <v>198.925951911799</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G16" t="n">
-        <v>198.925951911799</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>125.1634134907254</v>
+        <v>125.1634134907258</v>
       </c>
       <c r="K16" t="n">
-        <v>342.6792610512081</v>
+        <v>342.6792610512089</v>
       </c>
       <c r="L16" t="n">
-        <v>672.7677241113108</v>
+        <v>672.7677241113118</v>
       </c>
       <c r="M16" t="n">
-        <v>1030.453434322466</v>
+        <v>1030.453434322468</v>
       </c>
       <c r="N16" t="n">
-        <v>1385.390475639937</v>
+        <v>1385.390475639939</v>
       </c>
       <c r="O16" t="n">
-        <v>1698.248739171957</v>
+        <v>1698.248739171959</v>
       </c>
       <c r="P16" t="n">
-        <v>1944.384904217223</v>
+        <v>1944.384904217226</v>
       </c>
       <c r="Q16" t="n">
-        <v>2035.523864981344</v>
+        <v>2035.523864981347</v>
       </c>
       <c r="R16" t="n">
-        <v>1959.496759041398</v>
+        <v>1959.496759041402</v>
       </c>
       <c r="S16" t="n">
-        <v>1790.087480420712</v>
+        <v>1781.614226170756</v>
       </c>
       <c r="T16" t="n">
-        <v>1790.087480420712</v>
+        <v>1573.650962042809</v>
       </c>
       <c r="U16" t="n">
-        <v>1514.787964848883</v>
+        <v>1298.351446470979</v>
       </c>
       <c r="V16" t="n">
-        <v>1273.906827945523</v>
+        <v>1057.47030956762</v>
       </c>
       <c r="W16" t="n">
-        <v>998.2930092110886</v>
+        <v>781.8564908331859</v>
       </c>
       <c r="X16" t="n">
-        <v>998.2930092110886</v>
+        <v>567.6702912376959</v>
       </c>
       <c r="Y16" t="n">
-        <v>791.3037813700852</v>
+        <v>389.4900615852757</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1945.543552015398</v>
+        <v>1906.340210162604</v>
       </c>
       <c r="C17" t="n">
-        <v>1637.834019325586</v>
+        <v>1598.630677472793</v>
       </c>
       <c r="D17" t="n">
-        <v>1340.821304969435</v>
+        <v>1301.617963116643</v>
       </c>
       <c r="E17" t="n">
-        <v>1016.286036621791</v>
+        <v>1016.286036621789</v>
       </c>
       <c r="F17" t="n">
-        <v>666.5531160827835</v>
+        <v>666.5531160827823</v>
       </c>
       <c r="G17" t="n">
-        <v>312.7336501783801</v>
+        <v>312.7336501783793</v>
       </c>
       <c r="H17" t="n">
-        <v>76.4030340377472</v>
+        <v>76.40303403774692</v>
       </c>
       <c r="I17" t="n">
-        <v>76.4030340377472</v>
+        <v>76.40303403774692</v>
       </c>
       <c r="J17" t="n">
-        <v>432.6878140171257</v>
+        <v>337.9814861241916</v>
       </c>
       <c r="K17" t="n">
-        <v>808.5054049316859</v>
+        <v>671.8008598140379</v>
       </c>
       <c r="L17" t="n">
-        <v>1259.539618180095</v>
+        <v>1122.835073062447</v>
       </c>
       <c r="M17" t="n">
-        <v>1793.071522852019</v>
+        <v>2068.322619279565</v>
       </c>
       <c r="N17" t="n">
-        <v>2339.850339910802</v>
+        <v>2615.101436338347</v>
       </c>
       <c r="O17" t="n">
-        <v>2842.822810790139</v>
+        <v>3118.073907217683</v>
       </c>
       <c r="P17" t="n">
-        <v>3237.597177147317</v>
+        <v>3512.848273574861</v>
       </c>
       <c r="Q17" t="n">
-        <v>3696.075379656305</v>
+        <v>3761.134635330543</v>
       </c>
       <c r="R17" t="n">
-        <v>3820.15170188736</v>
+        <v>3820.151701887346</v>
       </c>
       <c r="S17" t="n">
-        <v>3810.317359517838</v>
+        <v>3771.114017665042</v>
       </c>
       <c r="T17" t="n">
-        <v>3665.59259615266</v>
+        <v>3626.389254299864</v>
       </c>
       <c r="U17" t="n">
-        <v>3473.315103677096</v>
+        <v>3434.1117618243</v>
       </c>
       <c r="V17" t="n">
-        <v>3203.505200584125</v>
+        <v>3164.30185873133</v>
       </c>
       <c r="W17" t="n">
-        <v>2911.989529564611</v>
+        <v>2872.786187711816</v>
       </c>
       <c r="X17" t="n">
-        <v>2599.776755554131</v>
+        <v>2560.573413701336</v>
       </c>
       <c r="Y17" t="n">
-        <v>2270.89040782892</v>
+        <v>2231.687065976125</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>951.4347720866725</v>
+        <v>951.4347720866721</v>
       </c>
       <c r="C18" t="n">
-        <v>776.9817428055455</v>
+        <v>776.9817428055451</v>
       </c>
       <c r="D18" t="n">
-        <v>628.0473331442943</v>
+        <v>628.0473331442938</v>
       </c>
       <c r="E18" t="n">
-        <v>468.8098781388387</v>
+        <v>468.8098781388384</v>
       </c>
       <c r="F18" t="n">
-        <v>322.2753201657237</v>
+        <v>322.2753201657234</v>
       </c>
       <c r="G18" t="n">
-        <v>185.9122199983417</v>
+        <v>185.9122199983415</v>
       </c>
       <c r="H18" t="n">
-        <v>95.41032563620925</v>
+        <v>95.410325636209</v>
       </c>
       <c r="I18" t="n">
-        <v>76.4030340377472</v>
+        <v>76.40303403774692</v>
       </c>
       <c r="J18" t="n">
-        <v>170.0803035283645</v>
+        <v>170.0803035283642</v>
       </c>
       <c r="K18" t="n">
-        <v>408.3445025087117</v>
+        <v>408.3445025087122</v>
       </c>
       <c r="L18" t="n">
-        <v>775.042662821377</v>
+        <v>775.0426628213775</v>
       </c>
       <c r="M18" t="n">
         <v>1222.318988043693</v>
@@ -5622,13 +5622,13 @@
         <v>2445.3622202249</v>
       </c>
       <c r="T18" t="n">
-        <v>2252.719219902756</v>
+        <v>2252.719219902755</v>
       </c>
       <c r="U18" t="n">
         <v>2024.651373037171</v>
       </c>
       <c r="V18" t="n">
-        <v>1789.499264805429</v>
+        <v>1789.499264805428</v>
       </c>
       <c r="W18" t="n">
         <v>1535.261908077227</v>
@@ -5637,7 +5637,7 @@
         <v>1327.410407871694</v>
       </c>
       <c r="Y18" t="n">
-        <v>1119.650109106741</v>
+        <v>1119.65010910674</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>672.7337082931715</v>
+        <v>672.733708293168</v>
       </c>
       <c r="C19" t="n">
-        <v>565.0505096158646</v>
+        <v>565.0505096158615</v>
       </c>
       <c r="D19" t="n">
-        <v>476.1868544541288</v>
+        <v>476.1868544541262</v>
       </c>
       <c r="E19" t="n">
-        <v>389.5267451223357</v>
+        <v>389.5267451223335</v>
       </c>
       <c r="F19" t="n">
-        <v>303.8897818750253</v>
+        <v>303.8897818750236</v>
       </c>
       <c r="G19" t="n">
-        <v>197.4399295003442</v>
+        <v>197.4399295003429</v>
       </c>
       <c r="H19" t="n">
-        <v>112.4757269688019</v>
+        <v>112.4757269688012</v>
       </c>
       <c r="I19" t="n">
-        <v>76.4030340377472</v>
+        <v>76.40303403774692</v>
       </c>
       <c r="J19" t="n">
-        <v>181.5597163486958</v>
+        <v>121.5256664846825</v>
       </c>
       <c r="K19" t="n">
-        <v>385.5468992975722</v>
+        <v>325.5128494335588</v>
       </c>
       <c r="L19" t="n">
-        <v>702.1066977460682</v>
+        <v>642.072647882055</v>
       </c>
       <c r="M19" t="n">
-        <v>1046.263743345617</v>
+        <v>1046.263743345618</v>
       </c>
       <c r="N19" t="n">
-        <v>1418.793481502282</v>
+        <v>1387.672120051482</v>
       </c>
       <c r="O19" t="n">
-        <v>1718.123080422695</v>
+        <v>1687.001718971896</v>
       </c>
       <c r="P19" t="n">
-        <v>1950.730580856355</v>
+        <v>1979.643269269568</v>
       </c>
       <c r="Q19" t="n">
-        <v>2088.374926872882</v>
+        <v>2088.374926872875</v>
       </c>
       <c r="R19" t="n">
-        <v>2059.79745388101</v>
+        <v>2059.797453881003</v>
       </c>
       <c r="S19" t="n">
-        <v>1929.364553958437</v>
+        <v>1929.36455395843</v>
       </c>
       <c r="T19" t="n">
-        <v>1768.850922778563</v>
+        <v>1768.850922778556</v>
       </c>
       <c r="U19" t="n">
-        <v>1541.001040154806</v>
+        <v>1541.0010401548</v>
       </c>
       <c r="V19" t="n">
-        <v>1347.569536199519</v>
+        <v>1347.569536199514</v>
       </c>
       <c r="W19" t="n">
-        <v>1119.405350413159</v>
+        <v>1119.405350413154</v>
       </c>
       <c r="X19" t="n">
-        <v>952.6687837657414</v>
+        <v>952.668783765737</v>
       </c>
       <c r="Y19" t="n">
-        <v>793.1291888728113</v>
+        <v>793.1291888728073</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1906.340210162615</v>
+        <v>1945.543552015394</v>
       </c>
       <c r="C20" t="n">
-        <v>1598.630677472803</v>
+        <v>1637.834019325583</v>
       </c>
       <c r="D20" t="n">
-        <v>1301.617963116652</v>
+        <v>1340.821304969433</v>
       </c>
       <c r="E20" t="n">
-        <v>977.0826947690082</v>
+        <v>1016.28603662179</v>
       </c>
       <c r="F20" t="n">
-        <v>627.3497742300005</v>
+        <v>666.5531160827825</v>
       </c>
       <c r="G20" t="n">
-        <v>273.5303083255992</v>
+        <v>312.7336501783793</v>
       </c>
       <c r="H20" t="n">
-        <v>76.4030340377472</v>
+        <v>76.40303403774692</v>
       </c>
       <c r="I20" t="n">
-        <v>76.4030340377472</v>
+        <v>76.40303403774692</v>
       </c>
       <c r="J20" t="n">
-        <v>429.0331692239448</v>
+        <v>336.4525252644395</v>
       </c>
       <c r="K20" t="n">
-        <v>1083.756501359244</v>
+        <v>670.2718989542859</v>
       </c>
       <c r="L20" t="n">
-        <v>1534.790714607653</v>
+        <v>1534.79071460764</v>
       </c>
       <c r="M20" t="n">
-        <v>2068.322619279578</v>
+        <v>2068.322619279565</v>
       </c>
       <c r="N20" t="n">
-        <v>2615.10143633836</v>
+        <v>2615.101436338347</v>
       </c>
       <c r="O20" t="n">
-        <v>3118.073907217697</v>
+        <v>3118.073907217683</v>
       </c>
       <c r="P20" t="n">
-        <v>3512.848273574875</v>
+        <v>3512.848273574861</v>
       </c>
       <c r="Q20" t="n">
-        <v>3761.134635330558</v>
+        <v>3761.134635330543</v>
       </c>
       <c r="R20" t="n">
-        <v>3820.15170188736</v>
+        <v>3820.151701887346</v>
       </c>
       <c r="S20" t="n">
-        <v>3771.114017665055</v>
+        <v>3771.114017665042</v>
       </c>
       <c r="T20" t="n">
-        <v>3626.389254299877</v>
+        <v>3626.389254299864</v>
       </c>
       <c r="U20" t="n">
-        <v>3434.111761824313</v>
+        <v>3434.111761824302</v>
       </c>
       <c r="V20" t="n">
-        <v>3164.301858731343</v>
+        <v>3164.301858731331</v>
       </c>
       <c r="W20" t="n">
-        <v>2872.786187711828</v>
+        <v>2911.989529564607</v>
       </c>
       <c r="X20" t="n">
-        <v>2560.573413701348</v>
+        <v>2599.776755554127</v>
       </c>
       <c r="Y20" t="n">
-        <v>2231.687065976137</v>
+        <v>2270.890407828916</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>951.4347720866724</v>
+        <v>951.4347720866721</v>
       </c>
       <c r="C21" t="n">
-        <v>776.9817428055454</v>
+        <v>776.9817428055451</v>
       </c>
       <c r="D21" t="n">
-        <v>628.0473331442942</v>
+        <v>628.0473331442938</v>
       </c>
       <c r="E21" t="n">
-        <v>468.8098781388387</v>
+        <v>468.8098781388384</v>
       </c>
       <c r="F21" t="n">
-        <v>322.2753201657237</v>
+        <v>322.2753201657234</v>
       </c>
       <c r="G21" t="n">
-        <v>185.9122199983418</v>
+        <v>185.9122199983415</v>
       </c>
       <c r="H21" t="n">
-        <v>95.41032563620928</v>
+        <v>95.410325636209</v>
       </c>
       <c r="I21" t="n">
-        <v>76.4030340377472</v>
+        <v>76.40303403774692</v>
       </c>
       <c r="J21" t="n">
-        <v>170.0803035283645</v>
+        <v>170.0803035283642</v>
       </c>
       <c r="K21" t="n">
-        <v>408.3445025087117</v>
+        <v>408.3445025087113</v>
       </c>
       <c r="L21" t="n">
-        <v>775.042662821377</v>
+        <v>775.0426628213766</v>
       </c>
       <c r="M21" t="n">
         <v>1222.318988043693</v>
@@ -5859,13 +5859,13 @@
         <v>2445.3622202249</v>
       </c>
       <c r="T21" t="n">
-        <v>2252.719219902756</v>
+        <v>2252.719219902755</v>
       </c>
       <c r="U21" t="n">
         <v>2024.651373037171</v>
       </c>
       <c r="V21" t="n">
-        <v>1789.499264805429</v>
+        <v>1789.499264805428</v>
       </c>
       <c r="W21" t="n">
         <v>1535.261908077227</v>
@@ -5874,7 +5874,7 @@
         <v>1327.410407871694</v>
       </c>
       <c r="Y21" t="n">
-        <v>1119.650109106741</v>
+        <v>1119.65010910674</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>672.7337082931715</v>
+        <v>672.733708293168</v>
       </c>
       <c r="C22" t="n">
-        <v>565.0505096158646</v>
+        <v>565.0505096158615</v>
       </c>
       <c r="D22" t="n">
-        <v>476.1868544541288</v>
+        <v>476.1868544541262</v>
       </c>
       <c r="E22" t="n">
-        <v>389.5267451223357</v>
+        <v>389.5267451223335</v>
       </c>
       <c r="F22" t="n">
-        <v>303.8897818750253</v>
+        <v>303.8897818750236</v>
       </c>
       <c r="G22" t="n">
-        <v>197.4399295003442</v>
+        <v>197.4399295003429</v>
       </c>
       <c r="H22" t="n">
-        <v>112.4757269688019</v>
+        <v>112.4757269688012</v>
       </c>
       <c r="I22" t="n">
-        <v>76.4030340377472</v>
+        <v>76.40303403774692</v>
       </c>
       <c r="J22" t="n">
-        <v>121.5256664846828</v>
+        <v>152.6470279354746</v>
       </c>
       <c r="K22" t="n">
-        <v>385.5468992975722</v>
+        <v>356.6342108843509</v>
       </c>
       <c r="L22" t="n">
-        <v>762.1407476100813</v>
+        <v>733.2280591968605</v>
       </c>
       <c r="M22" t="n">
-        <v>1106.29779320963</v>
+        <v>1077.385104796409</v>
       </c>
       <c r="N22" t="n">
-        <v>1478.827531366295</v>
+        <v>1418.793481502274</v>
       </c>
       <c r="O22" t="n">
-        <v>1778.157130286708</v>
+        <v>1778.157130286701</v>
       </c>
       <c r="P22" t="n">
-        <v>2010.764630720368</v>
+        <v>2010.76463072036</v>
       </c>
       <c r="Q22" t="n">
-        <v>2088.374926872882</v>
+        <v>2088.374926872875</v>
       </c>
       <c r="R22" t="n">
-        <v>2059.79745388101</v>
+        <v>2059.797453881003</v>
       </c>
       <c r="S22" t="n">
-        <v>1929.364553958437</v>
+        <v>1929.36455395843</v>
       </c>
       <c r="T22" t="n">
-        <v>1768.850922778563</v>
+        <v>1768.850922778556</v>
       </c>
       <c r="U22" t="n">
-        <v>1541.001040154806</v>
+        <v>1541.0010401548</v>
       </c>
       <c r="V22" t="n">
-        <v>1347.569536199519</v>
+        <v>1347.569536199514</v>
       </c>
       <c r="W22" t="n">
-        <v>1119.405350413159</v>
+        <v>1119.405350413154</v>
       </c>
       <c r="X22" t="n">
-        <v>952.6687837657414</v>
+        <v>952.668783765737</v>
       </c>
       <c r="Y22" t="n">
-        <v>793.1291888728113</v>
+        <v>793.1291888728073</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1946.343620216476</v>
+        <v>1946.343620216473</v>
       </c>
       <c r="C23" t="n">
-        <v>1638.634087526664</v>
+        <v>1638.634087526661</v>
       </c>
       <c r="D23" t="n">
-        <v>1341.621373170513</v>
+        <v>1341.621373170511</v>
       </c>
       <c r="E23" t="n">
-        <v>1017.086104822869</v>
+        <v>1017.086104822867</v>
       </c>
       <c r="F23" t="n">
-        <v>667.3531842838614</v>
+        <v>667.3531842838602</v>
       </c>
       <c r="G23" t="n">
-        <v>313.5337183794572</v>
+        <v>313.5337183794566</v>
       </c>
       <c r="H23" t="n">
-        <v>77.20310223882441</v>
+        <v>77.20310223882426</v>
       </c>
       <c r="I23" t="n">
-        <v>77.20310223882441</v>
+        <v>77.20310223882426</v>
       </c>
       <c r="J23" t="n">
-        <v>266.0822331978499</v>
+        <v>266.0822331978496</v>
       </c>
       <c r="K23" t="n">
-        <v>599.9016068876963</v>
+        <v>599.9016068876961</v>
       </c>
       <c r="L23" t="n">
         <v>1050.935820136105</v>
       </c>
       <c r="M23" t="n">
-        <v>1584.46772480803</v>
+        <v>1584.467724808029</v>
       </c>
       <c r="N23" t="n">
-        <v>2539.856115013482</v>
+        <v>2271.464869628193</v>
       </c>
       <c r="O23" t="n">
-        <v>3042.828585892819</v>
+        <v>2774.43734050753</v>
       </c>
       <c r="P23" t="n">
-        <v>3437.602952249997</v>
+        <v>3487.792427954475</v>
       </c>
       <c r="Q23" t="n">
-        <v>3736.078789710165</v>
+        <v>3736.078789710158</v>
       </c>
       <c r="R23" t="n">
-        <v>3860.155111941221</v>
+        <v>3860.155111941213</v>
       </c>
       <c r="S23" t="n">
-        <v>3811.117427718916</v>
+        <v>3811.117427718908</v>
       </c>
       <c r="T23" t="n">
-        <v>3666.392664353737</v>
+        <v>3666.392664353731</v>
       </c>
       <c r="U23" t="n">
-        <v>3474.115171878174</v>
+        <v>3474.115171878168</v>
       </c>
       <c r="V23" t="n">
-        <v>3204.305268785203</v>
+        <v>3204.305268785198</v>
       </c>
       <c r="W23" t="n">
-        <v>2912.789597765689</v>
+        <v>2912.789597765684</v>
       </c>
       <c r="X23" t="n">
-        <v>2600.576823755209</v>
+        <v>2600.576823755205</v>
       </c>
       <c r="Y23" t="n">
-        <v>2271.690476029998</v>
+        <v>2271.690476029994</v>
       </c>
     </row>
     <row r="24">
@@ -6042,73 +6042,73 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>952.2348402877501</v>
+        <v>952.2348402877495</v>
       </c>
       <c r="C24" t="n">
-        <v>777.7818110066231</v>
+        <v>777.7818110066225</v>
       </c>
       <c r="D24" t="n">
-        <v>628.847401345372</v>
+        <v>628.8474013453713</v>
       </c>
       <c r="E24" t="n">
-        <v>469.6099463399164</v>
+        <v>469.6099463399157</v>
       </c>
       <c r="F24" t="n">
-        <v>323.0753883668015</v>
+        <v>323.0753883668007</v>
       </c>
       <c r="G24" t="n">
-        <v>186.7122881994199</v>
+        <v>186.7122881994188</v>
       </c>
       <c r="H24" t="n">
-        <v>96.21039383728683</v>
+        <v>96.21039383728632</v>
       </c>
       <c r="I24" t="n">
-        <v>77.20310223882441</v>
+        <v>77.20310223882426</v>
       </c>
       <c r="J24" t="n">
-        <v>170.880371729442</v>
+        <v>170.8803717294415</v>
       </c>
       <c r="K24" t="n">
-        <v>409.1445707097894</v>
+        <v>409.1445707097886</v>
       </c>
       <c r="L24" t="n">
-        <v>775.8427310224549</v>
+        <v>775.8427310224539</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.119056244771</v>
+        <v>1223.11905624477</v>
       </c>
       <c r="N24" t="n">
-        <v>1696.642099799225</v>
+        <v>1696.642099799224</v>
       </c>
       <c r="O24" t="n">
-        <v>2107.60337921728</v>
+        <v>2107.603379217279</v>
       </c>
       <c r="P24" t="n">
-        <v>2418.102970693383</v>
+        <v>2418.102970693382</v>
       </c>
       <c r="Q24" t="n">
-        <v>2575.744528339983</v>
+        <v>2575.744528339982</v>
       </c>
       <c r="R24" t="n">
-        <v>2575.600174932498</v>
+        <v>2575.600174932497</v>
       </c>
       <c r="S24" t="n">
-        <v>2446.162288425978</v>
+        <v>2446.162288425977</v>
       </c>
       <c r="T24" t="n">
-        <v>2253.519288103834</v>
+        <v>2253.519288103833</v>
       </c>
       <c r="U24" t="n">
-        <v>2025.451441238249</v>
+        <v>2025.451441238248</v>
       </c>
       <c r="V24" t="n">
-        <v>1790.299333006507</v>
+        <v>1790.299333006506</v>
       </c>
       <c r="W24" t="n">
-        <v>1536.061976278305</v>
+        <v>1536.061976278304</v>
       </c>
       <c r="X24" t="n">
-        <v>1328.210476072772</v>
+        <v>1328.210476072771</v>
       </c>
       <c r="Y24" t="n">
         <v>1120.450177307818</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>673.5337764942487</v>
+        <v>673.5337764942452</v>
       </c>
       <c r="C25" t="n">
-        <v>565.8505778169418</v>
+        <v>565.8505778169388</v>
       </c>
       <c r="D25" t="n">
-        <v>476.9869226552061</v>
+        <v>476.9869226552034</v>
       </c>
       <c r="E25" t="n">
-        <v>390.3268133234129</v>
+        <v>390.3268133234108</v>
       </c>
       <c r="F25" t="n">
-        <v>304.6898500761025</v>
+        <v>304.6898500761008</v>
       </c>
       <c r="G25" t="n">
-        <v>198.2399977014214</v>
+        <v>198.2399977014202</v>
       </c>
       <c r="H25" t="n">
-        <v>113.2757951698791</v>
+        <v>113.2757951698785</v>
       </c>
       <c r="I25" t="n">
-        <v>77.20310223882441</v>
+        <v>77.20310223882426</v>
       </c>
       <c r="J25" t="n">
-        <v>122.32573468576</v>
+        <v>122.3257346857598</v>
       </c>
       <c r="K25" t="n">
-        <v>326.3129176346364</v>
+        <v>357.4342790854284</v>
       </c>
       <c r="L25" t="n">
-        <v>702.9067659471456</v>
+        <v>734.028127397938</v>
       </c>
       <c r="M25" t="n">
-        <v>1107.097861410708</v>
+        <v>1078.185172997487</v>
       </c>
       <c r="N25" t="n">
-        <v>1448.506238116572</v>
+        <v>1419.593549703352</v>
       </c>
       <c r="O25" t="n">
-        <v>1747.835837036986</v>
+        <v>1778.957198487778</v>
       </c>
       <c r="P25" t="n">
-        <v>2011.564698921445</v>
+        <v>2011.564698921438</v>
       </c>
       <c r="Q25" t="n">
-        <v>2089.17499507396</v>
+        <v>2089.174995073952</v>
       </c>
       <c r="R25" t="n">
-        <v>2060.597522082088</v>
+        <v>2060.597522082081</v>
       </c>
       <c r="S25" t="n">
-        <v>1930.164622159514</v>
+        <v>1930.164622159507</v>
       </c>
       <c r="T25" t="n">
-        <v>1769.65099097964</v>
+        <v>1769.650990979634</v>
       </c>
       <c r="U25" t="n">
-        <v>1541.801108355884</v>
+        <v>1541.801108355878</v>
       </c>
       <c r="V25" t="n">
-        <v>1348.369604400597</v>
+        <v>1348.369604400591</v>
       </c>
       <c r="W25" t="n">
-        <v>1120.205418614236</v>
+        <v>1120.205418614231</v>
       </c>
       <c r="X25" t="n">
-        <v>953.4688519668186</v>
+        <v>953.4688519668142</v>
       </c>
       <c r="Y25" t="n">
-        <v>793.9292570738885</v>
+        <v>793.9292570738845</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
         <v>1400.778593038484</v>
@@ -6224,25 +6224,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455611</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L26" t="n">
-        <v>1054.87963479397</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M26" t="n">
         <v>1588.411539465894</v>
       </c>
       <c r="N26" t="n">
-        <v>2135.190356524677</v>
+        <v>2156.722678745572</v>
       </c>
       <c r="O26" t="n">
-        <v>2826.495488321721</v>
+        <v>3036.687329075027</v>
       </c>
       <c r="P26" t="n">
-        <v>3539.850575768667</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q26" t="n">
         <v>3998.328778277655</v>
@@ -6257,16 +6257,16 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
         <v>2372.257749805548</v>
@@ -6303,13 +6303,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L27" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6382,25 +6382,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K28" t="n">
         <v>423.2675027973141</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982166</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q28" t="n">
         <v>2313.972430572251</v>
@@ -6412,13 +6412,13 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
         <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W28" t="n">
         <v>1262.182746297367</v>
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J29" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455611</v>
+        <v>924.7493799910139</v>
       </c>
       <c r="L29" t="n">
-        <v>1468.364237198916</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.89614187084</v>
+        <v>2305.516762226677</v>
       </c>
       <c r="N29" t="n">
-        <v>2548.674958929623</v>
+        <v>2852.295579285459</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164795</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521973</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="30">
@@ -6537,16 +6537,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502697984</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899648</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257023</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913824</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415453</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643375</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302686</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982167</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.97243057225</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.03837257035</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644067</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386253</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297366</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347422</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519649</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467802</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455611</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.87963479397</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M32" t="n">
-        <v>2030.265665799118</v>
+        <v>2033.429937623798</v>
       </c>
       <c r="N32" t="n">
-        <v>2577.0444828579</v>
+        <v>2580.20875468258</v>
       </c>
       <c r="O32" t="n">
-        <v>3080.016953737237</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P32" t="n">
-        <v>3474.791320094415</v>
+        <v>3750.042416521972</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6774,16 +6774,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913842</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415472</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350173</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E35" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467786</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398487</v>
@@ -6935,13 +6935,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J35" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K35" t="n">
-        <v>603.8454215455611</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L35" t="n">
-        <v>1054.87963479397</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M35" t="n">
         <v>1588.411539465894</v>
@@ -6950,16 +6950,16 @@
         <v>2568.163811692541</v>
       </c>
       <c r="O35" t="n">
-        <v>3071.136282571878</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P35" t="n">
-        <v>3750.042416521973</v>
+        <v>3750.042416521972</v>
       </c>
       <c r="Q35" t="n">
         <v>3998.328778277655</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S35" t="n">
         <v>3994.504809309626</v>
@@ -7014,13 +7014,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J36" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L36" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M36" t="n">
         <v>1227.062870902635</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697995</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899659</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257035</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913837</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415466</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643389</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I37" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M37" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N37" t="n">
         <v>1564.908879308444</v>
@@ -7117,19 +7117,19 @@
         <v>2313.972430572251</v>
       </c>
       <c r="R37" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S37" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T37" t="n">
         <v>1953.038372570351</v>
       </c>
       <c r="U37" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644067</v>
       </c>
       <c r="V37" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W37" t="n">
         <v>1262.182746297367</v>
@@ -7138,7 +7138,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519659</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467786</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398487</v>
@@ -7175,28 +7175,28 @@
         <v>437.4316968760676</v>
       </c>
       <c r="K38" t="n">
-        <v>771.2510705659141</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L38" t="n">
         <v>1222.285283814323</v>
       </c>
       <c r="M38" t="n">
-        <v>1755.817188486248</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N38" t="n">
-        <v>2302.59600554503</v>
+        <v>2735.569460712893</v>
       </c>
       <c r="O38" t="n">
-        <v>2805.568476424367</v>
+        <v>3238.54193159223</v>
       </c>
       <c r="P38" t="n">
-        <v>3474.791320094414</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q38" t="n">
         <v>3933.269522603402</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S38" t="n">
         <v>3994.504809309626</v>
@@ -7208,7 +7208,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W38" t="n">
         <v>3040.963574146293</v>
@@ -7251,13 +7251,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J39" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L39" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257042</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H40" t="n">
         <v>131.0229611302705</v>
@@ -7330,10 +7330,10 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L40" t="n">
         <v>786.3326864982171</v>
@@ -7360,7 +7360,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T40" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U40" t="n">
         <v>1711.385138644068</v>
@@ -7369,13 +7369,13 @@
         <v>1504.150283386255</v>
       </c>
       <c r="W40" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X40" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467786</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
@@ -7409,31 +7409,31 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J41" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K41" t="n">
-        <v>603.8454215455611</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L41" t="n">
-        <v>1054.87963479397</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M41" t="n">
-        <v>1986.936041136908</v>
+        <v>2033.429937623798</v>
       </c>
       <c r="N41" t="n">
-        <v>2533.71485819569</v>
+        <v>2580.20875468258</v>
       </c>
       <c r="O41" t="n">
-        <v>3036.687329075027</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P41" t="n">
-        <v>3750.042416521973</v>
+        <v>3750.042416521972</v>
       </c>
       <c r="Q41" t="n">
         <v>3998.328778277655</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S41" t="n">
         <v>3994.504809309626</v>
@@ -7488,13 +7488,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L42" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E43" t="n">
         <v>449.4840331913842</v>
@@ -7567,16 +7567,16 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N43" t="n">
         <v>1564.908879308444</v>
@@ -7612,7 +7612,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.107542689498</v>
       </c>
       <c r="C44" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.59465869716</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E44" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388312</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G44" t="n">
         <v>331.2808843398486</v>
@@ -7646,31 +7646,31 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J44" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K44" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L44" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M44" t="n">
-        <v>1755.817188486248</v>
+        <v>1986.936041136908</v>
       </c>
       <c r="N44" t="n">
-        <v>2302.59600554503</v>
+        <v>2533.71485819569</v>
       </c>
       <c r="O44" t="n">
-        <v>2805.568476424367</v>
+        <v>3036.687329075027</v>
       </c>
       <c r="P44" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521972</v>
       </c>
       <c r="Q44" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S44" t="n">
         <v>3994.504809309626</v>
@@ -7679,19 +7679,19 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.89585086383</v>
       </c>
       <c r="V44" t="n">
         <v>3346.282596468333</v>
       </c>
       <c r="W44" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146292</v>
       </c>
       <c r="X44" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833285</v>
       </c>
       <c r="Y44" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805547</v>
       </c>
     </row>
     <row r="45">
@@ -7725,13 +7725,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L45" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502697995</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899661</v>
+        <v>652.614500289966</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257036</v>
       </c>
       <c r="E46" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913839</v>
       </c>
       <c r="F46" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415469</v>
       </c>
       <c r="G46" t="n">
         <v>229.7905149643393</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302704</v>
       </c>
       <c r="I46" t="n">
         <v>81.14691689668915</v>
@@ -7807,40 +7807,40 @@
         <v>172.7749345960314</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M46" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350171</v>
       </c>
       <c r="N46" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308442</v>
       </c>
       <c r="O46" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481262</v>
       </c>
       <c r="P46" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167328</v>
       </c>
       <c r="Q46" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.97243057225</v>
       </c>
       <c r="R46" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S46" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T46" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.03837257035</v>
       </c>
       <c r="U46" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644067</v>
       </c>
       <c r="V46" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W46" t="n">
         <v>1262.182746297367</v>
@@ -7849,7 +7849,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519659</v>
       </c>
     </row>
   </sheetData>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9161,16 +9161,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>73.43365770446394</v>
       </c>
       <c r="K17" t="n">
-        <v>42.42244164112503</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>416.1168096416101</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9182,10 +9182,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,13 +9398,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>165.4050547749214</v>
+        <v>71.88925279562346</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9647,16 +9647,16 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>412.7369425723937</v>
+        <v>141.6346745064463</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>50.69644010554148</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9884,16 +9884,16 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>21.74982042514796</v>
       </c>
       <c r="O26" t="n">
-        <v>190.2350110279878</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10112,19 +10112,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>400.2032972882125</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>306.6874953089242</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10355,22 +10355,22 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>446.3172993264884</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>274.8351763665437</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10598,10 +10598,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>287.0017854473912</v>
       </c>
       <c r="P35" t="n">
-        <v>287.0017854473908</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10832,16 +10832,16 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>277.2206841544135</v>
+        <v>52.18875040233479</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11066,16 +11066,16 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>402.5500016878925</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>274.8351763665437</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>402.550001687893</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11312,13 +11312,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>277.2206841544135</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>369.0685238739792</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>341.0177238311816</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>368.2650522827599</v>
       </c>
       <c r="F11" t="n">
-        <v>56.57600175598039</v>
+        <v>393.2107279522096</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.2564078639516</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>27.91161198342456</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>95.52244399867445</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>314.0869406806335</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>45.45105802494609</v>
       </c>
     </row>
     <row r="12">
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>134.9501552287105</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>132.7686448570673</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>38.04440549786958</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>152.3604904695264</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0896971248189</v>
       </c>
       <c r="I13" t="n">
-        <v>64.33203441533117</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>75.26683488054594</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>176.1037075419405</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>205.8836314866678</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>272.5465204161115</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>204.9193355625929</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>153.6597403424736</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.2564078639521</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>280.9424465978191</v>
+        <v>280.9424465978186</v>
       </c>
       <c r="I14" t="n">
-        <v>27.91161198342456</v>
+        <v>27.91161198342412</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>190.2526523501183</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>237.3298541694001</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>314.0869406806331</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>356.0657828889676</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>142.0069967897109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>134.9501552287105</v>
       </c>
       <c r="E16" t="n">
-        <v>132.7686448570678</v>
+        <v>132.7686448570673</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>131.7557302334294</v>
       </c>
       <c r="G16" t="n">
-        <v>152.3604904695268</v>
+        <v>152.3604904695264</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0896971248189</v>
       </c>
       <c r="I16" t="n">
-        <v>82.6871026203367</v>
+        <v>82.68710262033626</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>8.388521707461479</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>205.8836314866678</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>212.0443375995358</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>28.52090820669691</v>
       </c>
     </row>
     <row r="17">
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>38.81130843426268</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>38.81130843425444</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>38.81130843425308</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>38.81130843426158</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.932676241267473e-12</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1121303.276298487</v>
+        <v>1121303.276298488</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1121303.276298487</v>
+        <v>1121303.276298488</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1312037.25472331</v>
+        <v>1312037.254723308</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1312037.25472331</v>
+        <v>1312037.254723308</v>
       </c>
     </row>
     <row r="9">
@@ -26323,22 +26323,22 @@
         <v>123572.6796470336</v>
       </c>
       <c r="F2" t="n">
-        <v>123572.6796470336</v>
+        <v>123572.6796470337</v>
       </c>
       <c r="G2" t="n">
-        <v>143141.6681997603</v>
+        <v>143141.6681997604</v>
       </c>
       <c r="H2" t="n">
-        <v>143141.6681997604</v>
+        <v>143141.6681997605</v>
       </c>
       <c r="I2" t="n">
-        <v>143682.3097262495</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="J2" t="n">
         <v>143682.3097262497</v>
       </c>
       <c r="K2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="L2" t="n">
         <v>143682.3097262497</v>
@@ -26347,7 +26347,7 @@
         <v>143682.3097262497</v>
       </c>
       <c r="N2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262498</v>
       </c>
       <c r="O2" t="n">
         <v>143682.3097262497</v>
@@ -26378,31 +26378,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>71467.01119388588</v>
+        <v>71467.01119388499</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2659.436701233162</v>
+        <v>2659.436701233585</v>
       </c>
       <c r="J3" t="n">
-        <v>12898.44302927953</v>
+        <v>12898.44302928004</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487403</v>
+        <v>37580.10929487412</v>
       </c>
       <c r="M3" t="n">
-        <v>207188.5682920729</v>
+        <v>207188.568292073</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>29753.24015870659</v>
+        <v>29753.2401587058</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>425523.1391661035</v>
       </c>
       <c r="E4" t="n">
-        <v>23579.83155803456</v>
+        <v>23579.83155803503</v>
       </c>
       <c r="F4" t="n">
-        <v>23579.83155803458</v>
+        <v>23579.83155803505</v>
       </c>
       <c r="G4" t="n">
-        <v>80290.36045306717</v>
+        <v>80290.36045306713</v>
       </c>
       <c r="H4" t="n">
-        <v>80290.36045306717</v>
+        <v>80290.36045306714</v>
       </c>
       <c r="I4" t="n">
-        <v>81477.12876955487</v>
+        <v>81477.128769555</v>
       </c>
       <c r="J4" t="n">
-        <v>78703.96570883345</v>
+        <v>78703.96570883351</v>
       </c>
       <c r="K4" t="n">
         <v>78703.96570883348</v>
       </c>
       <c r="L4" t="n">
-        <v>78703.96570883348</v>
+        <v>78703.96570883354</v>
       </c>
       <c r="M4" t="n">
-        <v>78703.96570883345</v>
+        <v>78703.96570883349</v>
       </c>
       <c r="N4" t="n">
-        <v>78703.96570883345</v>
+        <v>78703.96570883349</v>
       </c>
       <c r="O4" t="n">
-        <v>78703.96570883346</v>
+        <v>78703.96570883354</v>
       </c>
       <c r="P4" t="n">
-        <v>78703.96570883348</v>
+        <v>78703.96570883354</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>75455.1701626389</v>
+        <v>75455.17016263894</v>
       </c>
       <c r="F5" t="n">
-        <v>75455.1701626389</v>
+        <v>75455.17016263893</v>
       </c>
       <c r="G5" t="n">
-        <v>86921.42030325581</v>
+        <v>86921.42030325564</v>
       </c>
       <c r="H5" t="n">
-        <v>86921.42030325581</v>
+        <v>86921.42030325564</v>
       </c>
       <c r="I5" t="n">
-        <v>87529.4721360745</v>
+        <v>87529.47213607443</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="K5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="M5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="N5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="O5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="P5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-315777.3798906218</v>
+        <v>-315781.7934684899</v>
       </c>
       <c r="C6" t="n">
-        <v>-315777.3798906218</v>
+        <v>-315781.79346849</v>
       </c>
       <c r="D6" t="n">
-        <v>-315777.3798906218</v>
+        <v>-315781.7934684899</v>
       </c>
       <c r="E6" t="n">
-        <v>-1110162.630643104</v>
+        <v>-1110449.911072809</v>
       </c>
       <c r="F6" t="n">
-        <v>24537.67792636011</v>
+        <v>24250.3974966566</v>
       </c>
       <c r="G6" t="n">
-        <v>-95537.12375044855</v>
+        <v>-95544.8472008258</v>
       </c>
       <c r="H6" t="n">
-        <v>-24070.11255656258</v>
+        <v>-24077.83600694074</v>
       </c>
       <c r="I6" t="n">
-        <v>-27983.72788061306</v>
+        <v>-27983.72788061338</v>
       </c>
       <c r="J6" t="n">
-        <v>-37298.04068666941</v>
+        <v>-37298.04068666993</v>
       </c>
       <c r="K6" t="n">
-        <v>-24399.59765738997</v>
+        <v>-24399.59765738985</v>
       </c>
       <c r="L6" t="n">
-        <v>-61979.70695226394</v>
+        <v>-61979.70695226408</v>
       </c>
       <c r="M6" t="n">
-        <v>-231588.1659494628</v>
+        <v>-231588.1659494629</v>
       </c>
       <c r="N6" t="n">
-        <v>-24399.59765738988</v>
+        <v>-24399.59765738982</v>
       </c>
       <c r="O6" t="n">
-        <v>-54152.83781609643</v>
+        <v>-54152.83781609569</v>
       </c>
       <c r="P6" t="n">
-        <v>-24399.59765738991</v>
+        <v>-24399.59765738992</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="F2" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="G2" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="H2" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="I2" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859264</v>
       </c>
     </row>
     <row r="3">
@@ -26799,25 +26799,25 @@
         <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>955.03792547184</v>
+        <v>955.0379254718365</v>
       </c>
       <c r="H4" t="n">
-        <v>955.03792547184</v>
+        <v>955.0379254718365</v>
       </c>
       <c r="I4" t="n">
-        <v>965.0387779853052</v>
+        <v>965.0387779853032</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
+        <v>1014.336461208615</v>
+      </c>
+      <c r="L4" t="n">
         <v>1014.336461208614</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
         <v>1014.336461208614</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27024,16 +27024,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>123.6364700695472</v>
+        <v>123.6364700695439</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>10.00085251346513</v>
+        <v>10.00085251346673</v>
       </c>
       <c r="J4" t="n">
-        <v>49.29768322330926</v>
+        <v>49.2976832233112</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>123.6364700695472</v>
+        <v>123.6364700695439</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27270,7 +27270,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>123.6364700695472</v>
+        <v>123.6364700695439</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="C11" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="D11" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="E11" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="F11" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="G11" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="H11" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="I11" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="T11" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="U11" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="V11" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="W11" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="X11" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="C13" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="D13" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="E13" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="F13" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="G13" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="H13" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="I13" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="J13" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="K13" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="L13" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="M13" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="N13" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="O13" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="P13" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="R13" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="S13" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="T13" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="U13" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="V13" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="W13" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="X13" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="C14" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="D14" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="E14" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="F14" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="G14" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="H14" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="I14" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="T14" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="U14" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="V14" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="W14" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="X14" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="C16" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="D16" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="E16" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="F16" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="G16" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="H16" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="I16" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="J16" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="K16" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="L16" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="M16" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="N16" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="O16" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="P16" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="R16" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="S16" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="T16" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="U16" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="V16" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="W16" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="X16" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.66531778950139</v>
+        <v>13.66531778950186</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="C17" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="D17" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="E17" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="F17" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="G17" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="H17" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="T17" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="U17" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="V17" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="W17" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="X17" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="Y17" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
     </row>
     <row r="18">
@@ -28719,31 +28719,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="C19" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="D19" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="E19" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="F19" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="G19" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="H19" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="I19" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="J19" t="n">
-        <v>60.64045440809394</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28752,43 +28752,43 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="N19" t="n">
-        <v>31.43571863717159</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="Q19" t="n">
-        <v>60.64045440809394</v>
+        <v>31.43571863716325</v>
       </c>
       <c r="R19" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="S19" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="T19" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="U19" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="V19" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="W19" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="X19" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="Y19" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="C20" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="D20" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="E20" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="F20" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="G20" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="H20" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="T20" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="U20" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="V20" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="W20" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="X20" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="Y20" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
     </row>
     <row r="21">
@@ -28956,46 +28956,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="C22" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="D22" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="E22" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="F22" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="G22" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="H22" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="I22" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>31.43571863716379</v>
       </c>
       <c r="K22" t="n">
-        <v>60.64045440809394</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>31.43571863717159</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="S22" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="T22" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="U22" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="V22" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="W22" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="X22" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="Y22" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="C23" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="D23" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="E23" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="F23" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="G23" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="H23" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="T23" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="U23" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="V23" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="W23" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="X23" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="Y23" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="C25" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="D25" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="E25" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="F25" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="G25" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="H25" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="I25" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>31.43571863716392</v>
       </c>
       <c r="L25" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="M25" t="n">
-        <v>60.64045440809394</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="P25" t="n">
-        <v>31.43571863717193</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="S25" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="T25" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="U25" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="V25" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="W25" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="X25" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
       <c r="Y25" t="n">
-        <v>60.64045440809394</v>
+        <v>60.64045440809443</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859227</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859222</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859264</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859074</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859264</v>
       </c>
     </row>
   </sheetData>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353166</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233483</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138802</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.24373440256762</v>
+        <v>59.24373440256808</v>
       </c>
       <c r="K13" t="n">
-        <v>219.712977333821</v>
+        <v>219.7129773338214</v>
       </c>
       <c r="L13" t="n">
-        <v>333.4226899596995</v>
+        <v>333.4226899597</v>
       </c>
       <c r="M13" t="n">
-        <v>361.2986971829852</v>
+        <v>361.2986971829857</v>
       </c>
       <c r="N13" t="n">
-        <v>358.5222639570415</v>
+        <v>358.522263957042</v>
       </c>
       <c r="O13" t="n">
-        <v>316.0184480121412</v>
+        <v>316.0184480121416</v>
       </c>
       <c r="P13" t="n">
-        <v>248.6223889346118</v>
+        <v>248.6223889346123</v>
       </c>
       <c r="Q13" t="n">
-        <v>92.05955632739506</v>
+        <v>92.05955632739551</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193724</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.24373440256762</v>
+        <v>59.24373440256805</v>
       </c>
       <c r="K16" t="n">
-        <v>219.712977333821</v>
+        <v>219.7129773338214</v>
       </c>
       <c r="L16" t="n">
-        <v>333.4226899596995</v>
+        <v>333.4226899596999</v>
       </c>
       <c r="M16" t="n">
-        <v>361.2986971829852</v>
+        <v>361.2986971829856</v>
       </c>
       <c r="N16" t="n">
-        <v>358.5222639570414</v>
+        <v>358.5222639570419</v>
       </c>
       <c r="O16" t="n">
-        <v>316.0184480121412</v>
+        <v>316.0184480121416</v>
       </c>
       <c r="P16" t="n">
-        <v>248.6223889346118</v>
+        <v>248.6223889346122</v>
       </c>
       <c r="Q16" t="n">
-        <v>92.05955632739506</v>
+        <v>92.05955632739548</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>264.2206586731764</v>
       </c>
       <c r="K17" t="n">
-        <v>379.6137281965255</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>955.0379254718365</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609576</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>106.2188710211602</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>408.2738338015782</v>
       </c>
       <c r="N19" t="n">
-        <v>376.2926648047116</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>295.5975255532048</v>
       </c>
       <c r="Q19" t="n">
-        <v>139.0346929459876</v>
+        <v>109.8299571750569</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>356.1920557436339</v>
+        <v>262.676253764336</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.79426790133</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>77.01413525022998</v>
       </c>
       <c r="K22" t="n">
-        <v>266.6881139524135</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
-        <v>380.3978265782921</v>
+        <v>380.3978265782925</v>
       </c>
       <c r="M22" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>376.2926648047116</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>362.9935846307342</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>965.0387779853052</v>
+        <v>693.9365099193576</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
-        <v>301.490744909261</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>237.4833781814834</v>
       </c>
       <c r="L25" t="n">
-        <v>380.3978265782921</v>
+        <v>380.3978265782925</v>
       </c>
       <c r="M25" t="n">
-        <v>408.2738338015778</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>362.9935846307342</v>
       </c>
       <c r="P25" t="n">
-        <v>266.3927897822824</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>574.0516558380592</v>
       </c>
       <c r="O26" t="n">
-        <v>698.2880119162069</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,16 +36750,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N28" t="n">
         <v>391.8320827861326</v>
@@ -36768,7 +36768,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>939.1244131184391</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>814.7404961971433</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316587</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629121</v>
+        <v>253.022796162912</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N31" t="n">
         <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P31" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>985.2384151567152</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>782.8881772547627</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>795.0547863356102</v>
       </c>
       <c r="P35" t="n">
-        <v>685.7637716667626</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,25 +37461,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887904</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O37" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3693751564862</v>
@@ -37543,25 +37543,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>675.9826703737854</v>
+        <v>450.9507366217064</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37707,16 +37707,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>941.4711175181193</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>782.8881772547627</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -37944,16 +37944,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120761</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>941.4711175181195</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>675.9826703737854</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165884</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629122</v>
@@ -38181,7 +38181,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120745</v>
       </c>
       <c r="N46" t="n">
         <v>391.8320827861327</v>
@@ -38193,7 +38193,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
